--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,118 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>12000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F12" s="3">
         <v>28500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>25600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>20600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>24100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>20400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>28500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>11700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>11100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F17" s="3">
         <v>36800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>34100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>26400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>28200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>23300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>33500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-34100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-27200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-20800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-19100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-16800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-21500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-12800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1176,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-23700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-18300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-17100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-15000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-19100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-8200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-9900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-12300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1304,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-31700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-24600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-18600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-17400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-15300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-19600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-12700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-31700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-24600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-18600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-17400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-15300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-19600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-12700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-31700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-24600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-18600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-17400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-15300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-19600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-31700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-24600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-18600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-17400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-15300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-19600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-12700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-31700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-24600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-18600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-17400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-15300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-19600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-12700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,35 +1965,37 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>89600</v>
+      </c>
+      <c r="F41" s="3">
         <v>87000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>69200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>61000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>65500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>41900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>48900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,35 +2005,41 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>387600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>263400</v>
+      </c>
+      <c r="F42" s="3">
         <v>294500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>341700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>375600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>224900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>266800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>219200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,35 +2137,41 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,35 +2181,41 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>556200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>357400</v>
+      </c>
+      <c r="F46" s="3">
         <v>385500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>414600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>442100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>293200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>312600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>270000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,35 +2269,41 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="F48" s="3">
         <v>62600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>61100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>52400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>10900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,35 +2445,41 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,35 +2533,41 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>618900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>421900</v>
+      </c>
+      <c r="F54" s="3">
         <v>449700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>477300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>496000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>308400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>318700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>274900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,34 +2617,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2396,8 +2657,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,35 +2701,41 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F59" s="3">
         <v>58500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>66600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>54600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>47800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>40700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>36800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,35 +2745,41 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F60" s="3">
         <v>58700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>67100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>55800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>47900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>41000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>36900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2789,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,35 +2833,41 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>165200</v>
+      </c>
+      <c r="F62" s="3">
         <v>172400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>164400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>174000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>147300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>150300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>159800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,35 +3009,41 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="F66" s="3">
         <v>231100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>231500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>229900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>195200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>191300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>196700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,20 +3180,20 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>210500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>210200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>147600</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,35 +3247,41 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-259800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-219800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-189300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-157600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-133000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-114400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-97100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-81700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,35 +3423,41 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>391700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>194700</v>
+      </c>
+      <c r="F76" s="3">
         <v>218600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>245700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>266200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-97400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-82800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-69400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-31700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-24600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-18600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-17400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-15300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-19600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-12700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
       </c>
       <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-28900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-18100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-23600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-17700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-22400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>167500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>184500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-8800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-9400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F94" s="3">
         <v>45900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>26400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-151300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>42500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-46900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-219600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-179500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>228500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>170300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>62300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>70100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F102" s="3">
         <v>17800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>23500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>17900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-9400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>7200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E12" s="3">
         <v>34600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E17" s="3">
         <v>49200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-42000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-34100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-38600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-40000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-40000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-24600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-40000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-24600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-40000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-24600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E41" s="3">
         <v>160900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>87000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>61000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>65500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,38 +2098,41 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>411100</v>
+      </c>
+      <c r="E42" s="3">
         <v>387600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>263400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>294500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>341700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>375600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>224900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>266800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>219200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,38 +2239,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E45" s="3">
         <v>7700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,38 +2286,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>510100</v>
+      </c>
+      <c r="E46" s="3">
         <v>556200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>357400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>385500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>414600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>442100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>293200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>312600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>270000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,38 +2380,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E48" s="3">
         <v>60800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>52400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1600</v>
       </c>
       <c r="G52" s="3">
         <v>1600</v>
       </c>
       <c r="H52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>572000</v>
+      </c>
+      <c r="E54" s="3">
         <v>618900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>421900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>449700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>477300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>496000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>308400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>318700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>274900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +2749,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E59" s="3">
         <v>67700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,38 +2888,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E60" s="3">
         <v>71800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>62000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>58700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>67100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,38 +2982,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E62" s="3">
         <v>155400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>165200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>172400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>164400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>174000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>147300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>150300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>159800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>227200</v>
+        <v>216700</v>
       </c>
       <c r="E66" s="3">
         <v>227200</v>
       </c>
       <c r="F66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="G66" s="3">
         <v>231100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>231500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>229900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>195200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>191300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>196700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,17 +3354,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>210500</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>210200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>147600</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-305200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-259800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-219800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-189300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-157600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-133000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-97100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-81700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>355300</v>
+      </c>
+      <c r="E76" s="3">
         <v>391700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>194700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>218600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>245700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>266200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-97400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-82800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-69400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-40000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-24600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,25 +3826,26 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E83" s="3">
         <v>1400</v>
       </c>
       <c r="F83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -3655,25 +3854,28 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>167500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>184500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-124900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>30100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>45900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>26400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-151300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>42500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-219600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-179500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E100" s="3">
         <v>228500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>170300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>62300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>70100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E102" s="3">
         <v>71300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>23500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E12" s="3">
         <v>34100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E17" s="3">
         <v>49800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-46600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-42000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-34100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-43900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-38600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E41" s="3">
         <v>92500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>160900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>87000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>61000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>65500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,41 +2188,44 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>376700</v>
+      </c>
+      <c r="E42" s="3">
         <v>411100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>387600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>263400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>294500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>341700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>375600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>224900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>266800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>219200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,41 +2338,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E45" s="3">
         <v>6400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E46" s="3">
         <v>510100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>556200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>357400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>385500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>414600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>442100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>293200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>312600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>270000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,41 +2488,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E48" s="3">
         <v>59400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>60800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>52400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2688,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1600</v>
       </c>
       <c r="H52" s="3">
         <v>1600</v>
       </c>
       <c r="I52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>531600</v>
+      </c>
+      <c r="E54" s="3">
         <v>572000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>618900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>421900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>449700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>477300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>496000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>308400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>318700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>274900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E59" s="3">
         <v>61100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>61700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E60" s="3">
         <v>65900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>71800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>58700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>67100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,41 +3128,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E62" s="3">
         <v>150800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>155400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>165200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>172400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>164400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>174000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>147300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>150300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>159800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>221400</v>
+      </c>
+      <c r="E66" s="3">
         <v>216700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>227200</v>
       </c>
       <c r="F66" s="3">
         <v>227200</v>
       </c>
       <c r="G66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="H66" s="3">
         <v>231100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>231500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>229900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>195200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>191300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>196700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,17 +3525,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>210500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>210200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>147600</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-357900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-305200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-259800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-219800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-189300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-157600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-133000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-114400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-97100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-81700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E76" s="3">
         <v>355300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>391700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>194700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>218600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>245700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>266200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-97400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-82800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-69400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,19 +4035,19 @@
         <v>1500</v>
       </c>
       <c r="E83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F83" s="3">
         <v>1400</v>
       </c>
       <c r="G83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -3857,25 +4056,28 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-45900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>167500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>184500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8800</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-124900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>30100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>45900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>26400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-151300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>42500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-219600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-179500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>228500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>170300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>62300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>70100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-68400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>71300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,138 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E8" s="3">
         <v>5900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E12" s="3">
         <v>43800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E17" s="3">
         <v>59700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-53800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-51200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-43900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-38600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-52700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-24600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-52700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-52700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-52700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-40000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-52700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-40000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E41" s="3">
         <v>85000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>92500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>160900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>89600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>87000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>61000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>65500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,44 +2277,47 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>363300</v>
+      </c>
+      <c r="E42" s="3">
         <v>376700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>411100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>387600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>263400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>294500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>341700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>375600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>224900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>266800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>219200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,44 +2436,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,44 +2489,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>421500</v>
+      </c>
+      <c r="E46" s="3">
         <v>470000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>510100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>556200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>357400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>385500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>414600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>442100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>293200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>312600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>270000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,44 +2595,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E48" s="3">
         <v>57900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>60800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>52400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,44 +2807,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1600</v>
       </c>
       <c r="I52" s="3">
         <v>1600</v>
       </c>
       <c r="J52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>488300</v>
+      </c>
+      <c r="E54" s="3">
         <v>531600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>572000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>618900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>421900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>449700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>477300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>496000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>308400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>318700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>274900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3010,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,44 +3114,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E59" s="3">
         <v>69700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>61700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3167,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E60" s="3">
         <v>71100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>65900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>71800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>58700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>67100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>55800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,44 +3273,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E62" s="3">
         <v>150300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>150800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>155400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>165200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>172400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>164400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>174000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>147300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>150300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>159800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>220700</v>
+      </c>
+      <c r="E66" s="3">
         <v>221400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>216700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>227200</v>
       </c>
       <c r="G66" s="3">
         <v>227200</v>
       </c>
       <c r="H66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="I66" s="3">
         <v>231100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>231500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>229900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>195200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>191300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>196700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,17 +3695,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>210500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>210200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>147600</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-410000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-357900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-305200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-259800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-219800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-189300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-157600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-133000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-97100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-81700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>267500</v>
+      </c>
+      <c r="E76" s="3">
         <v>310200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>355300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>391700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>194700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>218600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>245700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>266200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-97400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-82800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-69400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-52700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-40000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4038,19 +4236,19 @@
         <v>1500</v>
       </c>
       <c r="F83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G83" s="3">
         <v>1400</v>
       </c>
       <c r="H83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -4059,25 +4257,28 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-45900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>167500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>184500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E94" s="3">
         <v>33000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-124900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>30100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>45900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>26400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-151300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>42500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-219600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-179500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>228500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>170300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>62300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>70100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-68400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>71300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E12" s="3">
         <v>44400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>43800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E17" s="3">
         <v>57600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>59700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-52700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-53800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-46600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-42000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,105 +1322,111 @@
         <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-50700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-51200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-43900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-38600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1490,55 @@
         <v>-52200</v>
       </c>
       <c r="E23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-52700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-40000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-24600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>-52200</v>
       </c>
       <c r="E26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-52700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-40000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1714,55 @@
         <v>-52200</v>
       </c>
       <c r="E27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-52700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-40000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,52 +1994,55 @@
         <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>-52200</v>
       </c>
       <c r="E33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-52700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-40000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>-52200</v>
       </c>
       <c r="E35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-52700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-40000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E41" s="3">
         <v>50000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>160900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>89600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>87000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>65500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,47 +2367,50 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E42" s="3">
         <v>363300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>376700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>411100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>387600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>263400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>294500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>341700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>375600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>224900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>266800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>219200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,47 +2535,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>374700</v>
+      </c>
+      <c r="E46" s="3">
         <v>421500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>470000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>510100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>556200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>357400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>385500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>414600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>442100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>293200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>312600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>270000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,47 +2703,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E48" s="3">
         <v>62700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>57900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>61100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>52400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,38 +2939,38 @@
         <v>4100</v>
       </c>
       <c r="E52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1600</v>
       </c>
       <c r="J52" s="3">
         <v>1600</v>
       </c>
       <c r="K52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>440400</v>
+      </c>
+      <c r="E54" s="3">
         <v>488300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>531600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>572000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>618900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>421900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>449700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>477300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>496000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>308400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>318700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>274900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,47 +3251,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E59" s="3">
         <v>65100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>69700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>61100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>61700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>66600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E60" s="3">
         <v>68100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>71100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>65900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>58700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>67100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,47 +3419,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E62" s="3">
         <v>152600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>150300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>150800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>155400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>165200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>172400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>164400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>174000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>147300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>150300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>159800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E66" s="3">
         <v>220700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>221400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>216700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>227200</v>
       </c>
       <c r="H66" s="3">
         <v>227200</v>
       </c>
       <c r="I66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="J66" s="3">
         <v>231100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>231500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>229900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>195200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>191300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>196700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,17 +3866,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>210500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>210200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>147600</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-462200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-410000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-357900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-305200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-259800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-219800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-189300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-157600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-133000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-114400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-97100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-81700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>227800</v>
+      </c>
+      <c r="E76" s="3">
         <v>267500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>310200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>355300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>391700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>194700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>218600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>245700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>266200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-97400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-82800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-69400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>-52200</v>
       </c>
       <c r="E81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-52700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-40000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4239,19 +4438,19 @@
         <v>1500</v>
       </c>
       <c r="G83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H83" s="3">
         <v>1400</v>
       </c>
       <c r="I83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -4260,25 +4459,28 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
         <v>500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-47700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-45900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-32300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>167500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>184500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8800</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E94" s="3">
         <v>11600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>33000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-124900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>30100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>45900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>26400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-151300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>42500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-219600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-179500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>228500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>170300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>62300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>70100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-68400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>71300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E12" s="3">
         <v>45700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>44400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>43800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>34600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E17" s="3">
         <v>56700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>59700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13300</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-52600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-52700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-53800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-46600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-42000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-32300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
       </c>
       <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-50600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-50700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-51200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-43900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-38600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-29100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-12300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-52200</v>
+        <v>-55100</v>
       </c>
       <c r="E23" s="3">
         <v>-52200</v>
       </c>
       <c r="F23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-52700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-40000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52200</v>
+        <v>-55100</v>
       </c>
       <c r="E26" s="3">
         <v>-52200</v>
       </c>
       <c r="F26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-52700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-40000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52200</v>
+        <v>-55100</v>
       </c>
       <c r="E27" s="3">
         <v>-52200</v>
       </c>
       <c r="F27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-52700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-40000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
       </c>
       <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52200</v>
+        <v>-55100</v>
       </c>
       <c r="E33" s="3">
         <v>-52200</v>
       </c>
       <c r="F33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-52700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-40000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52200</v>
+        <v>-55100</v>
       </c>
       <c r="E35" s="3">
         <v>-52200</v>
       </c>
       <c r="F35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-52700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-40000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2400,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E41" s="3">
         <v>110700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>160900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>89600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>87000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>65500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,50 +2457,53 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E42" s="3">
         <v>252000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>363300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>376700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>411100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>387600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>263400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>294500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>341700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>375600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>224900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>266800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>219200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,50 +2634,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E45" s="3">
         <v>12000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,50 +2693,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>329300</v>
+      </c>
+      <c r="E46" s="3">
         <v>374700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>421500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>470000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>510100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>556200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>357400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>385500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>414600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>442100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>293200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>312600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>270000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,50 +2811,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E48" s="3">
         <v>61600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>57900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>61100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3047,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4100</v>
+        <v>7500</v>
       </c>
       <c r="E52" s="3">
         <v>4100</v>
       </c>
       <c r="F52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G52" s="3">
         <v>3700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1600</v>
       </c>
       <c r="K52" s="3">
         <v>1600</v>
       </c>
       <c r="L52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3165,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>397100</v>
+      </c>
+      <c r="E54" s="3">
         <v>440400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>488300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>531600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>572000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>618900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>421900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>449700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>477300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>496000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>308400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>318700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>274900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3272,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,50 +3388,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E59" s="3">
         <v>58800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>69700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>61100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>61700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>58500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,50 +3447,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E60" s="3">
         <v>64100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>68100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>71100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>65900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>58700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>55800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,50 +3565,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E62" s="3">
         <v>148500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>152600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>150300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>150800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>155400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>165200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>172400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>164400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>174000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>147300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>150300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>159800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3801,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>212600</v>
+      </c>
+      <c r="E66" s="3">
         <v>212500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>220700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>221400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>216700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>227200</v>
       </c>
       <c r="I66" s="3">
         <v>227200</v>
       </c>
       <c r="J66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="K66" s="3">
         <v>231100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>231500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>229900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>195200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>191300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>196700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,17 +4037,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>210500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>210200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>147600</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4119,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-517400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-462200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-410000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-357900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-305200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-259800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-219800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-189300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-157600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-133000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-114400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-97100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-81700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4355,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E76" s="3">
         <v>227800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>267500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>310200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>355300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>391700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>194700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>218600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>245700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>266200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-97400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-82800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-69400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52200</v>
+        <v>-55100</v>
       </c>
       <c r="E81" s="3">
         <v>-52200</v>
       </c>
       <c r="F81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-52700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-40000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4621,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
         <v>1500</v>
@@ -4441,19 +4640,19 @@
         <v>1500</v>
       </c>
       <c r="H83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I83" s="3">
         <v>1400</v>
       </c>
       <c r="J83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -4462,25 +4661,28 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
       <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-52700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-47700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-40800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-45900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-32300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>167500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>184500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8800</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E94" s="3">
         <v>109600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>33000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-124900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>30100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>45900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>26400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-151300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>42500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-219600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-179500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>228500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>170300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>62300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>70100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E102" s="3">
         <v>60700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-68400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>71300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9400</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>182400</v>
+      </c>
+      <c r="E8" s="3">
         <v>6600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E12" s="3">
         <v>47800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>45700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>44400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>43800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>34100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>34600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E17" s="3">
         <v>61900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>33500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13300</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-55300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-52600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-52700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-53800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-46600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-42000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-32300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>500</v>
       </c>
       <c r="F20" s="3">
         <v>500</v>
       </c>
       <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-53600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-50600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-50700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-51200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-43900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-38600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-29100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-12300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-55100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-52200</v>
       </c>
       <c r="F23" s="3">
         <v>-52200</v>
       </c>
       <c r="G23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-52700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-45300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-40000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12700</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-55100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-52200</v>
       </c>
       <c r="F26" s="3">
         <v>-52200</v>
       </c>
       <c r="G26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-52700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-45300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-40000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12700</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-55100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-52200</v>
       </c>
       <c r="F27" s="3">
         <v>-52200</v>
       </c>
       <c r="G27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-52700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-40000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-500</v>
       </c>
       <c r="F32" s="3">
         <v>-500</v>
       </c>
       <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-55100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-52200</v>
       </c>
       <c r="F33" s="3">
         <v>-52200</v>
       </c>
       <c r="G33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-52700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-45300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-40000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-55100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-52200</v>
       </c>
       <c r="F35" s="3">
         <v>-52200</v>
       </c>
       <c r="G35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-52700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-45300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-40000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,53 +2487,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>516500</v>
+      </c>
+      <c r="E41" s="3">
         <v>125700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>110700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>85000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>160900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>89600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>87000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>61000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>65500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>41900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,53 +2547,56 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>261300</v>
+      </c>
+      <c r="E42" s="3">
         <v>193900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>252000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>363300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>376700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>411100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>387600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>263400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>294500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>341700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>375600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>224900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>266800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>219200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2519,31 +2609,34 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,53 +2733,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E45" s="3">
         <v>9800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,53 +2795,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>788000</v>
+      </c>
+      <c r="E46" s="3">
         <v>329300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>374700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>421500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>470000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>510100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>556200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>357400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>385500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>414600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>442100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>293200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>312600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>270000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,53 +2919,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E48" s="3">
         <v>60300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>57900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>59400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>61100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>52400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,53 +3167,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
         <v>7500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>4100</v>
       </c>
       <c r="F52" s="3">
         <v>4100</v>
       </c>
       <c r="G52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1600</v>
       </c>
       <c r="L52" s="3">
         <v>1600</v>
       </c>
       <c r="M52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>854200</v>
+      </c>
+      <c r="E54" s="3">
         <v>397100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>440400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>488300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>531600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>572000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>618900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>421900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>449700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>477300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>496000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>308400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>318700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>274900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,53 +3403,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>11900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,53 +3525,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E59" s="3">
         <v>62500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>69700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>61100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>61700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,53 +3587,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>132800</v>
+      </c>
+      <c r="E60" s="3">
         <v>74400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>68100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>65900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>58700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,53 +3711,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>385500</v>
+      </c>
+      <c r="E62" s="3">
         <v>138200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>148500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>152600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>150300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>150800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>155400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>165200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>172400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>164400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>174000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>147300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>150300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>159800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>518300</v>
+      </c>
+      <c r="E66" s="3">
         <v>212600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>212500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>220700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>221400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>216700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>227200</v>
       </c>
       <c r="J66" s="3">
         <v>227200</v>
       </c>
       <c r="K66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="L66" s="3">
         <v>231100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>231500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>229900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>195200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>191300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>196700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4040,17 +4208,17 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>210500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>210200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>147600</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-390800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-517400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-462200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-410000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-357900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-305200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-259800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-219800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-189300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-157600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-133000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-114400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-97100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-81700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>335900</v>
+      </c>
+      <c r="E76" s="3">
         <v>184500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>227800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>267500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>310200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>355300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>391700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>194700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>218600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>245700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>266200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-97400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-82800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-55100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-52200</v>
       </c>
       <c r="F81" s="3">
         <v>-52200</v>
       </c>
       <c r="G81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-52700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-45300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-40000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,7 +4830,7 @@
         <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1500</v>
@@ -4643,19 +4842,19 @@
         <v>1500</v>
       </c>
       <c r="I83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J83" s="3">
         <v>1400</v>
       </c>
       <c r="K83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -4664,25 +4863,28 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>445100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-44500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-52700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-47700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-40800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-45900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-32300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-22400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>167500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>184500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8800</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="E94" s="3">
         <v>56600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>109600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>33000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-124900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>30100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>45900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>26400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-151300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>42500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-219600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-179500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>228500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>170300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>62300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>70100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>390800</v>
+      </c>
+      <c r="E102" s="3">
         <v>15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-68400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>71300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9400</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,165 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E8" s="3">
         <v>182400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E12" s="3">
         <v>43100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>47800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>44400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>43800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>34100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11100</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E17" s="3">
         <v>56100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>61900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>33500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13300</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="E18" s="3">
         <v>126300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-55300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-52600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-52700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-53800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-46600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-42000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>500</v>
       </c>
       <c r="G20" s="3">
         <v>500</v>
       </c>
       <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E21" s="3">
         <v>128200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-53600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-50600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-50700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-51200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-43900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-38600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-19100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-12300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E23" s="3">
         <v>126600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-55100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-52200</v>
       </c>
       <c r="G23" s="3">
         <v>-52200</v>
       </c>
       <c r="H23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-52700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-45300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-24600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12700</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E26" s="3">
         <v>126600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-55100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-52200</v>
       </c>
       <c r="G26" s="3">
         <v>-52200</v>
       </c>
       <c r="H26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-52700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-45300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-40000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12700</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E27" s="3">
         <v>126600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-55100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-52200</v>
       </c>
       <c r="G27" s="3">
         <v>-52200</v>
       </c>
       <c r="H27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-52700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-45300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-40000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12700</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-500</v>
       </c>
       <c r="G32" s="3">
         <v>-500</v>
       </c>
       <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E33" s="3">
         <v>126600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-55100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-52200</v>
       </c>
       <c r="G33" s="3">
         <v>-52200</v>
       </c>
       <c r="H33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-52700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-45300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-40000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12700</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E35" s="3">
         <v>126600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-55100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-52200</v>
       </c>
       <c r="G35" s="3">
         <v>-52200</v>
       </c>
       <c r="H35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-52700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-45300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-40000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12700</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>329200</v>
+      </c>
+      <c r="E41" s="3">
         <v>516500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>110700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>85000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>160900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>89600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>87000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>61000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>65500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,56 +2636,59 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>406100</v>
+      </c>
+      <c r="E42" s="3">
         <v>261300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>193900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>252000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>363300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>376700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>411100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>387600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>263400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>294500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>341700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>375600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>224900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>266800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>219200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,17 +2701,20 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,8 +2730,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,56 +2831,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,56 +2896,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>749700</v>
+      </c>
+      <c r="E46" s="3">
         <v>788000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>329300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>374700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>421500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>470000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>510100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>556200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>357400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>385500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>414600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>442100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>293200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>312600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>270000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,56 +3026,59 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E48" s="3">
         <v>59000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>60300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>61600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>57900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>59400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>60800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>61100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3286,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4100</v>
       </c>
       <c r="G52" s="3">
         <v>4100</v>
       </c>
       <c r="H52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1600</v>
       </c>
       <c r="M52" s="3">
         <v>1600</v>
       </c>
       <c r="N52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>814700</v>
+      </c>
+      <c r="E54" s="3">
         <v>854200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>397100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>440400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>488300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>531600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>572000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>618900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>421900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>449700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>477300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>496000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>308400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>318700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>274900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,56 +3533,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,56 +3661,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E59" s="3">
         <v>130500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>62500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>65100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>69700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>61100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>67700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>47800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,56 +3726,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>139600</v>
+      </c>
+      <c r="E60" s="3">
         <v>132800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>74400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>68100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>65900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>58700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>67100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>55800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>41000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>36900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,56 +3856,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>374400</v>
+      </c>
+      <c r="E62" s="3">
         <v>385500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>138200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>148500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>152600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>150300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>150800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>155400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>165200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>172400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>164400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>174000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>147300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>150300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>159800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>513900</v>
+      </c>
+      <c r="E66" s="3">
         <v>518300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>212600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>212500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>220700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>221400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>216700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>227200</v>
       </c>
       <c r="K66" s="3">
         <v>227200</v>
       </c>
       <c r="L66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="M66" s="3">
         <v>231100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>231500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>229900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>195200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>191300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>196700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4211,17 +4378,17 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>210500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>210200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>147600</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4466,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-446400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-390800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-517400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-462200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-410000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-357900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-305200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-259800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-219800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-189300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-157600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-133000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-114400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-97100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-81700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300700</v>
+      </c>
+      <c r="E76" s="3">
         <v>335900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>184500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>227800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>267500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>310200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>355300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>391700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>194700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>218600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>245700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>266200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-97400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-82800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-69400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E81" s="3">
         <v>126600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-55100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-52200</v>
       </c>
       <c r="G81" s="3">
         <v>-52200</v>
       </c>
       <c r="H81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-52700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-45300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-40000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12700</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4833,7 +5031,7 @@
         <v>1600</v>
       </c>
       <c r="F83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1500</v>
@@ -4845,19 +5043,19 @@
         <v>1500</v>
       </c>
       <c r="J83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K83" s="3">
         <v>1400</v>
       </c>
       <c r="L83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -4866,25 +5064,28 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
       <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E89" s="3">
         <v>445100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-44500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-52700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-47700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-40800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-45900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-32300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>167500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>184500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8800</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-146800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>56600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>109600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>33000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-124900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>30100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>45900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>26400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-151300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>42500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-219600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-179500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E100" s="3">
         <v>14800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>228500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>170300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>62300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>70100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-187400</v>
+      </c>
+      <c r="E102" s="3">
         <v>390800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>60700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-35000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-68400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>71300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9400</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E8" s="3">
         <v>14000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>182400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E12" s="3">
         <v>52800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>43100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>47800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>45700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>44400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>43800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>28500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11100</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E17" s="3">
         <v>69700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>33500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13300</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-55700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>126300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-55300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-52600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-52700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-53800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-46600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-16800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>500</v>
       </c>
       <c r="H20" s="3">
         <v>500</v>
       </c>
       <c r="I20" s="3">
+        <v>500</v>
+      </c>
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-54000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>128200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-53600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-50600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-50700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-51200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-43900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-38600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-29100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-30500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-19100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-12300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-55600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>126600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-55100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-52200</v>
       </c>
       <c r="H23" s="3">
         <v>-52200</v>
       </c>
       <c r="I23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-52700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-24600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-55600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>126600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-55100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-52200</v>
       </c>
       <c r="H26" s="3">
         <v>-52200</v>
       </c>
       <c r="I26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-52700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-45300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-24600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12700</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-55600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>126600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-55100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-52200</v>
       </c>
       <c r="H27" s="3">
         <v>-52200</v>
       </c>
       <c r="I27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-52700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-45300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-40000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-19600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12700</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,31 +2057,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-500</v>
       </c>
       <c r="H32" s="3">
         <v>-500</v>
       </c>
       <c r="I32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-55600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>126600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-55100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-52200</v>
       </c>
       <c r="H33" s="3">
         <v>-52200</v>
       </c>
       <c r="I33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-52700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-45300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-40000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12700</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-55600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>126600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-55100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-52200</v>
       </c>
       <c r="H35" s="3">
         <v>-52200</v>
       </c>
       <c r="I35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-52700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-45300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-40000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12700</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>454600</v>
+      </c>
+      <c r="E41" s="3">
         <v>329200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>516500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>110700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>85000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>92500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>160900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>89600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>87000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>61000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>65500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,59 +2726,62 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>414000</v>
+      </c>
+      <c r="E42" s="3">
         <v>406100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>261300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>193900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>252000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>363300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>376700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>411100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>387600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>263400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>294500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>341700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>375600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>224900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>266800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>219200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,20 +2794,23 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E43" s="3">
         <v>7400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2826,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,59 +2930,62 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
         <v>7100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,59 +2998,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>890900</v>
+      </c>
+      <c r="E46" s="3">
         <v>749700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>788000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>329300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>374700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>421500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>470000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>510100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>556200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>357400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>385500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>414600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>442100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>293200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>312600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>270000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,59 +3134,62 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E48" s="3">
         <v>57900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>60300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>57900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>59400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>61100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,59 +3406,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4100</v>
       </c>
       <c r="H52" s="3">
         <v>4100</v>
       </c>
       <c r="I52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1600</v>
       </c>
       <c r="N52" s="3">
         <v>1600</v>
       </c>
       <c r="O52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>954500</v>
+      </c>
+      <c r="E54" s="3">
         <v>814700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>854200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>397100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>440400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>488300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>531600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>572000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>618900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>421900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>449700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>477300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>496000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>308400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>318700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>274900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,59 +3664,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,59 +3798,62 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E59" s="3">
         <v>134800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>130500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>62500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>69700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>61100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>61700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>66600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>40700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>36800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,59 +3866,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E60" s="3">
         <v>139600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>132800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>74400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>68100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>65900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>58700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>67100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>55800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>47900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>41000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>36900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,59 +4002,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E62" s="3">
         <v>374400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>385500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>138200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>148500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>152600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>150300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>150800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>155400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>165200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>172400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>164400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>174000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>147300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>150300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>159800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>686900</v>
+      </c>
+      <c r="E66" s="3">
         <v>513900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>518300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>212600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>212500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>220700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>221400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>216700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>227200</v>
       </c>
       <c r="L66" s="3">
         <v>227200</v>
       </c>
       <c r="M66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="N66" s="3">
         <v>231100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>231500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>229900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>195200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>191300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>196700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4381,17 +4549,17 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>210500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>210200</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>147600</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-491000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-446400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-390800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-517400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-462200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-410000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-357900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-305200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-259800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-219800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-189300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-157600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-133000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-114400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-97100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-81700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>267500</v>
+      </c>
+      <c r="E76" s="3">
         <v>300700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>335900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>184500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>227800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>267500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>310200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>355300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>391700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>194700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>218600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>245700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>266200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-97400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-82800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-69400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-55600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>126600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-55100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-52200</v>
       </c>
       <c r="H81" s="3">
         <v>-52200</v>
       </c>
       <c r="I81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-52700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-45300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-40000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12700</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,7 +5233,7 @@
         <v>1600</v>
       </c>
       <c r="G83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>1500</v>
@@ -5046,19 +5245,19 @@
         <v>1500</v>
       </c>
       <c r="K83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L83" s="3">
         <v>1400</v>
       </c>
       <c r="M83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -5067,25 +5266,28 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
       </c>
       <c r="U83" s="3">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-49300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>445100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-44500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-52700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-47700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-40800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-45900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-32300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-28900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-22400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>167500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>184500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8800</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-146800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>56600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>109600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>11600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>33000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-124900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>30100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>45900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>26400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-151300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>42500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-219600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-179500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>8600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>228500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>170300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>62300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>70100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-187400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>390800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>60700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-35000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-68400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>71300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9400</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E8" s="3">
         <v>24500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>182400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E12" s="3">
         <v>53000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>52800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>43100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>47800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>45700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>44400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>43800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11100</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E17" s="3">
         <v>68600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>69700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>57600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>33500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13300</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-44100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-55700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>126300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-55300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-52600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-52700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-53800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-46600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-42000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-32300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-21500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-12800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>500</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
       </c>
       <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-42300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-54000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-53600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-50600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-50700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-51200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-43900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-38600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-29100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-30500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-17100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-19100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-9900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-12300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-43900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-55600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>126600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-55100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-52200</v>
       </c>
       <c r="I23" s="3">
         <v>-52200</v>
       </c>
       <c r="J23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-52700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-24600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12700</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-43900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-55600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>126600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-55100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-52200</v>
       </c>
       <c r="I26" s="3">
         <v>-52200</v>
       </c>
       <c r="J26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-52700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-45300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-24600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12700</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-43900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-55600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>126600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-55100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-52200</v>
       </c>
       <c r="I27" s="3">
         <v>-52200</v>
       </c>
       <c r="J27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-52700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-40000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-24600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12700</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,17 +2118,20 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-800</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,8 +2147,8 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-500</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
       </c>
       <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-44600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-55600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>126600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-55100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-52200</v>
       </c>
       <c r="I33" s="3">
         <v>-52200</v>
       </c>
       <c r="J33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-52700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-40000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-12700</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-44600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-55600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>126600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-55100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-52200</v>
       </c>
       <c r="I35" s="3">
         <v>-52200</v>
       </c>
       <c r="J35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-52700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-40000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-12700</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,62 +2747,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E41" s="3">
         <v>454600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>329200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>516500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>125700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>110700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>85000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>160900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>89600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>87000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>61000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>65500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,62 +2816,65 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>636600</v>
+      </c>
+      <c r="E42" s="3">
         <v>414000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>406100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>261300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>193900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>252000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>363300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>376700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>411100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>387600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>263400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>294500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>341700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>375600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>224900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>266800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>219200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,23 +2887,26 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E43" s="3">
         <v>12800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2829,8 +2922,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,62 +3029,65 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E45" s="3">
         <v>9500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,62 +3100,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>827000</v>
+      </c>
+      <c r="E46" s="3">
         <v>890900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>749700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>788000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>329300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>374700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>421500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>470000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>510100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>556200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>357400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>385500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>414600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>442100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>293200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>312600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>270000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,62 +3242,65 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E48" s="3">
         <v>56100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>57900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>57900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>61100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>52400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,53 +3538,53 @@
         <v>7400</v>
       </c>
       <c r="E52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F52" s="3">
         <v>7000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4100</v>
       </c>
       <c r="I52" s="3">
         <v>4100</v>
       </c>
       <c r="J52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1600</v>
       </c>
       <c r="O52" s="3">
         <v>1600</v>
       </c>
       <c r="P52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,62 +3668,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>889700</v>
+      </c>
+      <c r="E54" s="3">
         <v>954500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>814700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>854200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>397100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>440400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>488300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>531600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>572000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>618900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>421900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>449700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>477300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>496000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>308400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>318700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>274900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,62 +3795,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,62 +3935,65 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>144800</v>
+      </c>
+      <c r="E59" s="3">
         <v>136100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>134800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>130500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>62500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>69700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>66600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>40700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>36800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,62 +4006,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E60" s="3">
         <v>142900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>139600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>132800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>74400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>68100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>58700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>67100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>55800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>47900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>41000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>36900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,62 +4148,65 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>451700</v>
+      </c>
+      <c r="E62" s="3">
         <v>544000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>374400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>385500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>138200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>148500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>152600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>150300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>150800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>155400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>165200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>172400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>164400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>174000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>147300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>150300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>159800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,62 +4432,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>601200</v>
+      </c>
+      <c r="E66" s="3">
         <v>686900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>513900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>518300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>212600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>212500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>220700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>221400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>216700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>227200</v>
       </c>
       <c r="M66" s="3">
         <v>227200</v>
       </c>
       <c r="N66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="O66" s="3">
         <v>231100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>231500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>229900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>195200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>191300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>196700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4552,17 +4720,17 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>210500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>210200</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>147600</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,62 +4814,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-481100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-491000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-446400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-390800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-517400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-462200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-410000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-357900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-305200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-259800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-219800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-189300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-157600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-114400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-97100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-81700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,62 +5098,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>288500</v>
+      </c>
+      <c r="E76" s="3">
         <v>267500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>335900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>184500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>227800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>267500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>310200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>355300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>391700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>194700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>218600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>245700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>266200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-97400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-82800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-69400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-44600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-55600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>126600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-55100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-52200</v>
       </c>
       <c r="I81" s="3">
         <v>-52200</v>
       </c>
       <c r="J81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-52700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-40000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-12700</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5416,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E83" s="3">
         <v>1600</v>
@@ -5236,7 +5435,7 @@
         <v>1600</v>
       </c>
       <c r="H83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>1500</v>
@@ -5248,19 +5447,19 @@
         <v>1500</v>
       </c>
       <c r="L83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M83" s="3">
         <v>1400</v>
       </c>
       <c r="N83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -5269,25 +5468,28 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
       </c>
       <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
         <v>300</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E89" s="3">
         <v>135100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>445100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-44500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-52700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-47700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-40800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-45900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-32300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-28800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-28900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-18100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-22400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>167500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>184500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-8800</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,67 +5950,70 @@
         <v>-700</v>
       </c>
       <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-225800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-146800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>56600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>109600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>33000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-124900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>30100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>45900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>26400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-151300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>42500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-46900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-219600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-179500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>228500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>170300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>62300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>70100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-282400</v>
+      </c>
+      <c r="E102" s="3">
         <v>125500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-187400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>390800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>60700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-35000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-68400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>71300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>23500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>17900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9400</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E8" s="3">
         <v>79900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>182400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E12" s="3">
         <v>54500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>53000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>52800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>43100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>47800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>45700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>44400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>43800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11100</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E17" s="3">
         <v>70400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>68600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>69700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>57600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>28200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>33500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13300</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E18" s="3">
         <v>9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-44100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-55700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>126300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-55300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-52600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-52700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-53800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-46600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-42000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-32300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-21500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12800</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>500</v>
       </c>
       <c r="J20" s="3">
         <v>500</v>
       </c>
       <c r="K20" s="3">
+        <v>500</v>
+      </c>
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E21" s="3">
         <v>12300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-42300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-54000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>128200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-53600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-50600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-50700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-51200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-43900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-38600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-29100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-30500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-17100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-15000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-19100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-9900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-12300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E23" s="3">
         <v>10900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-43900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-55600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>126600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-55100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-52200</v>
       </c>
       <c r="J23" s="3">
         <v>-52200</v>
       </c>
       <c r="K23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-52700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-45300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-30500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-31700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-12700</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E26" s="3">
         <v>10900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-43900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-55600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>126600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-55100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-52200</v>
       </c>
       <c r="J26" s="3">
         <v>-52200</v>
       </c>
       <c r="K26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-52700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-45300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-31700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-19600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-12700</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E27" s="3">
         <v>10900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-43900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-55600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>126600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-55100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-52200</v>
       </c>
       <c r="J27" s="3">
         <v>-52200</v>
       </c>
       <c r="K27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-52700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-30500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-19600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-12700</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,20 +2179,23 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-800</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2150,8 +2211,8 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-500</v>
       </c>
       <c r="J32" s="3">
         <v>-500</v>
       </c>
       <c r="K32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E33" s="3">
         <v>9900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-44600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-55600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>126600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-55100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-52200</v>
       </c>
       <c r="J33" s="3">
         <v>-52200</v>
       </c>
       <c r="K33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-52700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-40000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-30500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-31700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-19600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-12700</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E35" s="3">
         <v>9900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-44600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-55600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>126600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-55100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-52200</v>
       </c>
       <c r="J35" s="3">
         <v>-52200</v>
       </c>
       <c r="K35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-52700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-40000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-30500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-31700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-19600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-12700</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,65 +2834,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>184200</v>
+      </c>
+      <c r="E41" s="3">
         <v>172300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>454600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>329200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>516500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>125700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>110700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>85000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>92500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>160900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>89600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>87000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>69200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>61000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>65500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,65 +2906,68 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>574100</v>
+      </c>
+      <c r="E42" s="3">
         <v>636600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>414000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>406100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>261300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>193900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>252000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>363300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>376700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>411100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>387600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>263400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>294500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>341700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>375600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>224900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>266800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>219200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,26 +2980,29 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E43" s="3">
         <v>8800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2925,8 +3018,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,65 +3128,68 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E45" s="3">
         <v>9400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3103,65 +3202,68 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E46" s="3">
         <v>827000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>890900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>749700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>788000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>329300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>374700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>421500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>470000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>510100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>556200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>357400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>385500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>414600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>442100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>293200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>312600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>270000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,65 +3350,68 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E48" s="3">
         <v>55300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>56100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>57900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>57900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>60800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>61100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>52400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3200</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,65 +3646,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E52" s="3">
         <v>7400</v>
       </c>
       <c r="F52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G52" s="3">
         <v>7000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4100</v>
       </c>
       <c r="J52" s="3">
         <v>4100</v>
       </c>
       <c r="K52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L52" s="3">
         <v>3700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1600</v>
       </c>
       <c r="P52" s="3">
         <v>1600</v>
       </c>
       <c r="Q52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1600</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,65 +3794,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>837000</v>
+      </c>
+      <c r="E54" s="3">
         <v>889700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>954500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>814700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>854200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>397100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>440400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>488300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>531600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>572000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>618900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>421900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>449700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>477300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>496000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>308400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>318700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>274900</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,65 +3926,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,65 +4072,68 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E59" s="3">
         <v>144800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>136100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>134800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>130500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>69700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>61100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>67700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>61700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>58500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>66600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>40700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>36800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4009,65 +4146,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E60" s="3">
         <v>149400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>142900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>139600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>132800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>74400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>65900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>62000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>58700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>67100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>55800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>47900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>41000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>36900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,65 +4294,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>423000</v>
+      </c>
+      <c r="E62" s="3">
         <v>451700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>544000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>374400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>385500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>138200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>148500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>152600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>150300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>150800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>155400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>165200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>172400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>164400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>174000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>147300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>150300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>159800</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,65 +4590,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>583900</v>
+      </c>
+      <c r="E66" s="3">
         <v>601200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>686900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>513900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>518300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>212600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>212500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>220700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>221400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>216700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>227200</v>
       </c>
       <c r="N66" s="3">
         <v>227200</v>
       </c>
       <c r="O66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="P66" s="3">
         <v>231100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>231500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>229900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>195200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>191300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>196700</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4723,17 +4891,17 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>210500</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>210200</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>147600</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,65 +4988,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-527300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-481100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-491000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-446400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-390800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-517400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-462200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-410000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-357900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-305200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-259800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-219800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-189300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-157600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-133000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-114400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-97100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-81700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,65 +5284,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>253100</v>
+      </c>
+      <c r="E76" s="3">
         <v>288500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>267500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>335900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>184500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>227800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>267500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>310200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>355300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>391700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>194700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>218600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>245700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>266200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-97400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-82800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-69400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E81" s="3">
         <v>9900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-44600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-55600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>126600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-55100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-52200</v>
       </c>
       <c r="J81" s="3">
         <v>-52200</v>
       </c>
       <c r="K81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-52700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-40000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-30500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-31700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-19600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-12700</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,16 +5615,17 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1600</v>
@@ -5438,7 +5637,7 @@
         <v>1600</v>
       </c>
       <c r="I83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J83" s="3">
         <v>1500</v>
@@ -5450,19 +5649,19 @@
         <v>1500</v>
       </c>
       <c r="M83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N83" s="3">
         <v>1400</v>
       </c>
       <c r="O83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -5471,25 +5670,28 @@
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
       </c>
       <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
         <v>300</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-57400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>135100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-49300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>445100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-44500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-52700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-47700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-40800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-45900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-32300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-28800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-28900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-22400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>167500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>184500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-8800</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-700</v>
+        <v>-1900</v>
       </c>
       <c r="E91" s="3">
         <v>-700</v>
       </c>
       <c r="F91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-225800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-146800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>56600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>109600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>11600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>33000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-124900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>30100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>45900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>26400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-151300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>42500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-46900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-219600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-179500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>228500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>170300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>62300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>70100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-282400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>125500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-187400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>390800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>60700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-35000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-68400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>71300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9400</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,192 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E8" s="3">
         <v>14900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>182400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E12" s="3">
         <v>48300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>54500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>53000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>52800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>43100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>47800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>45700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>44400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>43800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>34600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>25600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>20400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>28500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11100</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E17" s="3">
         <v>62600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>68600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>69700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>49200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>28200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>33500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13300</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-47700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-44100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-55700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>126300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-55300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-52600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-52700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-53800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-46600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-42000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-32300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-27200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-20800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-19100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-16800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-21500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-10000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>500</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
       </c>
       <c r="L20" s="3">
+        <v>500</v>
+      </c>
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-44100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-42300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-54000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>128200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-53600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-50600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-50700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-51200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-43900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-38600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-29100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-23700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-17100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-15000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-19100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-9900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-12300</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-55600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>126600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-55100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-52200</v>
       </c>
       <c r="K23" s="3">
         <v>-52200</v>
       </c>
       <c r="L23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-52700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-45300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-24600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-15300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-10000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-43900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-55600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>126600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-55100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-52200</v>
       </c>
       <c r="K26" s="3">
         <v>-52200</v>
       </c>
       <c r="L26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-52700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-45300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-40000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-24600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-18600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-19600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-10000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-43900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-55600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>126600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-55100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-52200</v>
       </c>
       <c r="K27" s="3">
         <v>-52200</v>
       </c>
       <c r="L27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-52700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-40000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-30500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-24600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-19600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-10000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,14 +2251,14 @@
         <v>-700</v>
       </c>
       <c r="E29" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-800</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2214,8 +2274,8 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-500</v>
       </c>
       <c r="K32" s="3">
         <v>-500</v>
       </c>
       <c r="L32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-46100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-44600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-55600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>126600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-55100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-52200</v>
       </c>
       <c r="K33" s="3">
         <v>-52200</v>
       </c>
       <c r="L33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-52700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-45300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-40000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-30500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-24600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-19600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-10000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-46100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-44600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-55600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>126600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-55100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-52200</v>
       </c>
       <c r="K35" s="3">
         <v>-52200</v>
       </c>
       <c r="L35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-52700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-45300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-40000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-30500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-24600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-19600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-10000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,68 +2920,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>154300</v>
+      </c>
+      <c r="E41" s="3">
         <v>184200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>172300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>454600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>329200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>516500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>125700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>110700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>85000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>92500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>160900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>89600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>87000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>69200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>61000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>65500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>48900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2909,68 +2995,71 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>558500</v>
+      </c>
+      <c r="E42" s="3">
         <v>574100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>636600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>414000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>406100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>261300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>193900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>252000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>363300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>376700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>411100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>387600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>263400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>294500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>341700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>375600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>224900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>266800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>219200</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,29 +3072,32 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>6500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3021,8 +3113,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,68 +3226,71 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1900</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,68 +3303,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>726400</v>
+      </c>
+      <c r="E46" s="3">
         <v>775000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>827000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>890900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>749700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>788000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>329300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>374700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>421500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>470000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>510100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>556200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>357400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>385500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>414600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>442100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>293200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>312600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>270000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3279,8 +3380,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,68 +3457,71 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E48" s="3">
         <v>54800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>55300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>56100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>57900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>59000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>61600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>57900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>60800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>62600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>61100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>52400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3200</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3427,8 +3534,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,68 +3765,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E52" s="3">
         <v>7300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>7400</v>
       </c>
       <c r="F52" s="3">
         <v>7400</v>
       </c>
       <c r="G52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H52" s="3">
         <v>7000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4100</v>
       </c>
       <c r="K52" s="3">
         <v>4100</v>
       </c>
       <c r="L52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M52" s="3">
         <v>3700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1600</v>
       </c>
       <c r="Q52" s="3">
         <v>1600</v>
       </c>
       <c r="R52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S52" s="3">
         <v>1500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1600</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3919,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>787600</v>
+      </c>
+      <c r="E54" s="3">
         <v>837000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>889700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>954500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>814700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>854200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>397100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>440400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>488300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>531600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>572000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>618900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>421900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>449700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>477300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>496000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>308400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>318700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>274900</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,68 +4056,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4131,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,68 +4208,71 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E59" s="3">
         <v>156300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>144800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>136100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>134800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>130500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>58800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>69700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>67700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>61700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>58500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>66600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>40700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>36800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4149,68 +4285,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E60" s="3">
         <v>160900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>149400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>142900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>139600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>132800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>74400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>65900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>62000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>58700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>67100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>55800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>47900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>41000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>36900</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4223,8 +4362,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,68 +4439,71 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>479400</v>
+      </c>
+      <c r="E62" s="3">
         <v>423000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>451700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>544000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>374400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>385500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>138200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>148500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>152600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>150300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>150800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>155400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>165200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>172400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>164400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>174000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>147300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>150300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>159800</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4747,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>573200</v>
+      </c>
+      <c r="E66" s="3">
         <v>583900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>601200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>686900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>513900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>518300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>212600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>212500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>220700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>221400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>216700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>227200</v>
       </c>
       <c r="O66" s="3">
         <v>227200</v>
       </c>
       <c r="P66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>231100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>231500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>229900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>195200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>191300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>196700</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4894,17 +5061,17 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>210500</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>210200</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>147600</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,68 +5161,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-579700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-527300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-481100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-491000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-446400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-390800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-517400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-462200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-410000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-357900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-305200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-259800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-219800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-189300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-157600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-133000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-114400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-97100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-81700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5065,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5469,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>214400</v>
+      </c>
+      <c r="E76" s="3">
         <v>253100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>288500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>267500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>335900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>184500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>227800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>267500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>310200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>355300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>391700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>194700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>218600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>245700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>266200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-97400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-82800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-69400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-46100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-44600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-55600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>126600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-55100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-52200</v>
       </c>
       <c r="K81" s="3">
         <v>-52200</v>
       </c>
       <c r="L81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-52700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-45300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-40000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-30500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-24600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-19600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-10000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,19 +5813,20 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1600</v>
@@ -5640,7 +5838,7 @@
         <v>1600</v>
       </c>
       <c r="J83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K83" s="3">
         <v>1500</v>
@@ -5652,19 +5850,19 @@
         <v>1500</v>
       </c>
       <c r="N83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O83" s="3">
         <v>1400</v>
       </c>
       <c r="P83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -5673,25 +5871,28 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>500</v>
-      </c>
-      <c r="V83" s="3">
-        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
       </c>
       <c r="X83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
         <v>300</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-49100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-57400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>135100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-49300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>445100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-44500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-52700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-47700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-40800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-45900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-32300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-28800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-18100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-23600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-22400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>167500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>184500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-700</v>
       </c>
       <c r="F91" s="3">
         <v>-700</v>
       </c>
       <c r="G91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E94" s="3">
         <v>60500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-225800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-146800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-69100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>56600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>109600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>33000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-124900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>30100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>45900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>26400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-151300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>42500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-46900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-219600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-179500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>228500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>170300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>62300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>70100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
+      <c r="Y100" s="3">
+        <v>0</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E102" s="3">
         <v>12000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-282400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>125500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-187400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>390800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>60700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-35000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-68400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>71300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>23500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>17900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E8" s="3">
         <v>14400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>79900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>182400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E12" s="3">
         <v>54500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>48300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>54500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>53000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>52800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>43100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>47800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>44400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>43800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>34100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>34600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>25600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>24100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>20400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>28500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>11100</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E17" s="3">
         <v>69900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>68600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>69700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>49800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>49200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>34100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>28200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>33500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13300</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-55500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-47700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-44100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-55700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>126300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-55300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-52600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-52700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-53800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-46600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-42000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-34100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-27200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-20800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-19100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-16800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-21500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>500</v>
       </c>
       <c r="L20" s="3">
         <v>500</v>
       </c>
       <c r="M20" s="3">
+        <v>500</v>
+      </c>
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-50300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-44100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-42300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-54000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>128200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-53600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-50600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-50700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-51200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-43900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-38600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-30500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-23700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-18300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-17100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-19100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-8200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-12300</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-55600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>126600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-55100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-52200</v>
       </c>
       <c r="L23" s="3">
         <v>-52200</v>
       </c>
       <c r="M23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-52700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-45300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-40000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-24600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-15300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-55600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>126600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-55100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-52200</v>
       </c>
       <c r="L26" s="3">
         <v>-52200</v>
       </c>
       <c r="M26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-52700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-45300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-40000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-24600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-19600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-51700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-43900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-55600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>126600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-55100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-52200</v>
       </c>
       <c r="L27" s="3">
         <v>-52200</v>
       </c>
       <c r="M27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-52700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-40000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-24600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-19600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,26 +2300,29 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="E29" s="3">
         <v>-700</v>
       </c>
       <c r="F29" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-800</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,8 +2338,8 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-500</v>
       </c>
       <c r="L32" s="3">
         <v>-500</v>
       </c>
       <c r="M32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-52400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-46100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-44600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-55600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>126600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-55100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-52200</v>
       </c>
       <c r="L33" s="3">
         <v>-52200</v>
       </c>
       <c r="M33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-52700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-45300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-40000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-24600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-19600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-52400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-46100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-44600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-55600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>126600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-55100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-52200</v>
       </c>
       <c r="L35" s="3">
         <v>-52200</v>
       </c>
       <c r="M35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-52700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-45300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-40000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-24600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-19600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,71 +3007,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E41" s="3">
         <v>154300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>184200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>172300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>454600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>329200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>516500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>125700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>110700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>85000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>92500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>160900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>89600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>87000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>69200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>61000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>65500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>41900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>48900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2998,71 +3085,74 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E42" s="3">
         <v>558500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>574100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>636600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>414000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>406100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>261300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>193900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>252000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>363300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>376700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>411100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>387600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>263400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>294500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>341700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>375600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>224900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>266800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>219200</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3075,32 +3165,35 @@
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3209,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,71 +3325,74 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,71 +3405,74 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E46" s="3">
         <v>726400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>775000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>827000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>890900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>749700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>788000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>329300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>374700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>421500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>470000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>510100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>556200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>357400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>385500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>414600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>442100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>293200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>312600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>270000</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,71 +3565,74 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E48" s="3">
         <v>53300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>54800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>55300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>56100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>57900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>59000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>60300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>61600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>57900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>62300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>62600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>61100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>52400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3200</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,71 +3885,74 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E52" s="3">
         <v>7900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>7400</v>
       </c>
       <c r="G52" s="3">
         <v>7400</v>
       </c>
       <c r="H52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>4100</v>
       </c>
       <c r="L52" s="3">
         <v>4100</v>
       </c>
       <c r="M52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N52" s="3">
         <v>3700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1600</v>
       </c>
       <c r="R52" s="3">
         <v>1600</v>
       </c>
       <c r="S52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T52" s="3">
         <v>1500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1600</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,71 +4045,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>748300</v>
+      </c>
+      <c r="E54" s="3">
         <v>787600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>837000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>889700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>954500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>814700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>854200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>397100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>440400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>488300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>531600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>572000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>618900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>421900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>449700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>477300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>496000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>308400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>318700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>274900</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,71 +4187,72 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,71 +4345,74 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E59" s="3">
         <v>89600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>156300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>144800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>136100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>134800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>130500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>62500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>69700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>61100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>67700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>61700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>58500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>66600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>40700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>36800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4288,71 +4425,74 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E60" s="3">
         <v>93800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>160900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>149400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>142900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>139600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>132800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>74400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>65900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>62000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>58700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>67100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>55800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>47900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>41000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>36900</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,71 +4585,74 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E62" s="3">
         <v>479400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>423000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>451700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>544000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>374400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>385500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>138200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>148500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>152600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>150300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>150800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>155400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>165200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>172400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>164400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>174000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>147300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>150300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>159800</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,71 +4905,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>565300</v>
+      </c>
+      <c r="E66" s="3">
         <v>573200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>583900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>601200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>686900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>513900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>518300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>212600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>212500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>220700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>221400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>216700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>227200</v>
       </c>
       <c r="P66" s="3">
         <v>227200</v>
       </c>
       <c r="Q66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="R66" s="3">
         <v>231100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>231500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>229900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>195200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>191300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>196700</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5064,17 +5232,17 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>210500</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>210200</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>147600</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,71 +5335,74 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-625500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-579700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-527300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-481100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-491000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-446400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-390800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-517400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-462200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-410000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-357900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-305200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-259800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-219800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-189300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-157600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-133000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-114400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-97100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-81700</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,71 +5655,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E76" s="3">
         <v>214400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>253100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>288500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>267500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>335900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>184500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>227800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>267500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>310200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>355300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>391700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>194700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>218600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>245700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>266200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-97400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-82800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-69400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-52400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-46100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-44600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-55600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>126600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-55100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-52200</v>
       </c>
       <c r="L81" s="3">
         <v>-52200</v>
       </c>
       <c r="M81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-52700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-45300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-40000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-24600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-19600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,13 +6022,13 @@
         <v>1400</v>
       </c>
       <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>1600</v>
@@ -5841,7 +6040,7 @@
         <v>1600</v>
       </c>
       <c r="K83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L83" s="3">
         <v>1500</v>
@@ -5853,19 +6052,19 @@
         <v>1500</v>
       </c>
       <c r="O83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P83" s="3">
         <v>1400</v>
       </c>
       <c r="Q83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -5874,25 +6073,28 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>500</v>
-      </c>
-      <c r="W83" s="3">
-        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
       </c>
       <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
         <v>300</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-48900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-57400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>135100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-49300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>445100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-44500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-52700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-47700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-40800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-45900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-32300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-28900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-18100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-23600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-17700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-22400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>167500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>184500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-700</v>
       </c>
       <c r="G91" s="3">
         <v>-700</v>
       </c>
       <c r="H91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-500</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E94" s="3">
         <v>18400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>60500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-225800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-146800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-69100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>56600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>109600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>33000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-124900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>30100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>45900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>26400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-151300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>42500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-46900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-219600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-179500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-500</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>228500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>170300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>62300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>70100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
+      <c r="Z100" s="3">
+        <v>0</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-282400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>125500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-187400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>390800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-35000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-68400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>71300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>23500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>17900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,206 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E8" s="3">
         <v>16500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>79900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>182400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>500</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,88 +1059,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E12" s="3">
         <v>51900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>54500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>48300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>54500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>53000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>52800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>43100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>47800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>44400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>43800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>34100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>34600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>25800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>28500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>25600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>20600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>24100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>20400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>28500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>11100</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E17" s="3">
         <v>66700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>69900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>68600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>69700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>57600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>59700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>49800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>49200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>34100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>28200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>33500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>13300</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-50200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-55500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-47700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-44100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-55700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>126300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-55300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-52600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-52700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-53800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-46600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-32300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-34100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-27200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-20800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-19100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-16800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-21500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-12800</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1616,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E20" s="3">
         <v>5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>500</v>
       </c>
       <c r="M20" s="3">
         <v>500</v>
       </c>
       <c r="N20" s="3">
+        <v>500</v>
+      </c>
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>800</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-43600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-50300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-44100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-42300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-54000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>128200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-53600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-50600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-50700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-51200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-43900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-29100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-30500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-23700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-18300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-17100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-15000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-19100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-9900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-12300</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-55600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>126600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-55100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-52200</v>
       </c>
       <c r="M23" s="3">
         <v>-52200</v>
       </c>
       <c r="N23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-52700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-45300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-31700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-24600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-17400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-15300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-19600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-51700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-43900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-55600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>126600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-55100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-52200</v>
       </c>
       <c r="M26" s="3">
         <v>-52200</v>
       </c>
       <c r="N26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-52700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-45300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-31700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-24600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-19600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-51700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-43900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-55600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>126600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-55100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-52200</v>
       </c>
       <c r="M27" s="3">
         <v>-52200</v>
       </c>
       <c r="N27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-52700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-45300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-30500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-24600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-19600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,29 +2361,32 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-900</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-700</v>
       </c>
       <c r="F29" s="3">
         <v>-700</v>
       </c>
       <c r="G29" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-800</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2341,8 +2402,8 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-500</v>
       </c>
       <c r="M32" s="3">
         <v>-500</v>
       </c>
       <c r="N32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-800</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-52400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-46100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-44600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-55600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>126600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-55100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-52200</v>
       </c>
       <c r="M33" s="3">
         <v>-52200</v>
       </c>
       <c r="N33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-52700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-45300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-30500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-31700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-24600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-18600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-19600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-52400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-46100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-44600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-55600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>126600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-55100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-52200</v>
       </c>
       <c r="M35" s="3">
         <v>-52200</v>
       </c>
       <c r="N35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-52700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-45300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-30500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-31700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-24600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-18600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-19600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,74 +3094,75 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E41" s="3">
         <v>195600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>154300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>184200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>172300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>454600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>329200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>516500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>125700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>110700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>50000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>85000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>92500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>160900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>89600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>87000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>69200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>61000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>65500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>41900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>48900</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3088,74 +3175,77 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>498500</v>
+      </c>
+      <c r="E42" s="3">
         <v>473800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>558500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>574100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>636600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>414000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>406100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>261300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>193900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>252000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>363300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>376700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>411100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>387600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>263400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>294500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>341700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>375600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>224900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>266800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>219200</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,35 +3258,38 @@
       <c r="AB42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3305,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,74 +3424,77 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E45" s="3">
         <v>12000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1900</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,74 +3507,77 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>648000</v>
+      </c>
+      <c r="E46" s="3">
         <v>686000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>726400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>775000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>827000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>890900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>749700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>788000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>329300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>374700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>421500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>470000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>510100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>556200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>357400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>385500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>414600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>442100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>293200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>312600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>270000</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,74 +3673,77 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E48" s="3">
         <v>52100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>53300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>54800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>55300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>56100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>57900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>59000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>61600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>57900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>62300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>62600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>61100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>52400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3200</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,74 +4005,77 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E52" s="3">
         <v>10300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>7400</v>
       </c>
       <c r="H52" s="3">
         <v>7400</v>
       </c>
       <c r="I52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J52" s="3">
         <v>7000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>4100</v>
       </c>
       <c r="M52" s="3">
         <v>4100</v>
       </c>
       <c r="N52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O52" s="3">
         <v>3700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1600</v>
       </c>
       <c r="S52" s="3">
         <v>1600</v>
       </c>
       <c r="T52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U52" s="3">
         <v>1500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1600</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,74 +4171,77 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>708700</v>
+      </c>
+      <c r="E54" s="3">
         <v>748300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>787600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>837000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>889700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>954500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>814700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>854200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>397100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>440400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>488300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>531600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>572000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>618900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>421900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>449700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>477300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>496000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>308400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>318700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>274900</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,74 +4318,75 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,74 +4482,77 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E59" s="3">
         <v>96200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>89600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>156300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>144800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>136100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>134800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>130500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>62500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>69700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>61100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>67700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>61700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>58500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>66600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>54600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>47800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>40700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>36800</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4428,74 +4565,77 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E60" s="3">
         <v>99300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>160900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>149400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>142900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>139600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>132800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>74400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>65900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>71800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>62000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>58700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>67100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>55800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>47900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>41000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>36900</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,74 +4731,77 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>380200</v>
+      </c>
+      <c r="E62" s="3">
         <v>466000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>479400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>423000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>451700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>544000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>374400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>385500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>138200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>148500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>152600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>150300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>150800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>155400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>165200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>172400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>164400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>174000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>147300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>150300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>159800</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,74 +5063,77 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>512400</v>
+      </c>
+      <c r="E66" s="3">
         <v>565300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>573200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>583900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>601200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>686900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>513900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>518300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>212600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>212500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>220700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>221400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>216700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>227200</v>
       </c>
       <c r="Q66" s="3">
         <v>227200</v>
       </c>
       <c r="R66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="S66" s="3">
         <v>231100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>231500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>229900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>195200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>191300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>196700</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5235,17 +5403,17 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>210500</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>210200</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>147600</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,74 +5509,77 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-624200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-625500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-579700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-527300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-481100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-491000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-446400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-390800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-517400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-462200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-410000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-357900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-305200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-259800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-219800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-189300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-157600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-133000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-114400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-97100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-81700</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,74 +5841,77 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E76" s="3">
         <v>183000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>214400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>253100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>288500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>267500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>335900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>184500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>227800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>267500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>310200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>355300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>391700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>194700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>218600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>245700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>266200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-97400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-82800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-69400</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-52400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-46100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-44600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-55600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>126600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-55100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-52200</v>
       </c>
       <c r="M81" s="3">
         <v>-52200</v>
       </c>
       <c r="N81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-52700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-45300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-30500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-31700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-24600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-18600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-19600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,25 +6211,26 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E83" s="3">
         <v>1400</v>
       </c>
       <c r="F83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>1600</v>
@@ -6043,7 +6242,7 @@
         <v>1600</v>
       </c>
       <c r="L83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M83" s="3">
         <v>1500</v>
@@ -6055,19 +6254,19 @@
         <v>1500</v>
       </c>
       <c r="P83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q83" s="3">
         <v>1400</v>
       </c>
       <c r="R83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S83" s="3">
         <v>1300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>800</v>
-      </c>
-      <c r="T83" s="3">
-        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
@@ -6076,25 +6275,28 @@
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
         <v>500</v>
-      </c>
-      <c r="X83" s="3">
-        <v>200</v>
       </c>
       <c r="Y83" s="3">
         <v>200</v>
       </c>
       <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
         <v>300</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-48500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-48900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-49100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-57400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>135100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-49300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>445100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-44500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-52700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-47700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-40800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-45900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-28800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-28900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-18100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-23600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-17700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-22400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>167500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>184500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-700</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>
       </c>
       <c r="I91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-500</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E94" s="3">
         <v>88700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>18400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>60500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-225800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-146800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-69100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>56600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>109600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>33000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-124900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>30100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>45900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>26400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-151300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>42500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-46900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-219600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-179500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>228500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>170300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>62300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>70100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
+      <c r="AA100" s="3">
+        <v>0</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E102" s="3">
         <v>41200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-282400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>125500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-187400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>390800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>60700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-35000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-68400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>71300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>23500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>17900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-9400</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>ALEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,213 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
         <v>56200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>79900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>182400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,91 +1073,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E12" s="3">
         <v>46200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>54500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>48300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>54500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>53000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>52800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>43100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>47800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>45700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>44400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>43800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>34100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>34600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>25800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>25600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>20600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>24100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>20400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>28500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>11700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>8000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>11100</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E17" s="3">
         <v>59800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>66700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>69900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>68600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>69700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>57600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>59700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>49800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>49200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>38300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>34100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>28200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>23300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>33500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>14100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>13300</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-50200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-55500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-47700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-44100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-55700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>126300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-55300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-52600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-52700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-53800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-42000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-32300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-34100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-27200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-20800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-19100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-16800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-12800</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,174 +1650,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E20" s="3">
         <v>6400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>500</v>
       </c>
       <c r="N20" s="3">
         <v>500</v>
       </c>
       <c r="O20" s="3">
+        <v>500</v>
+      </c>
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>800</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E21" s="3">
         <v>4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-43600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-50300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-44100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-42300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-54000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-53600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-50600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-50700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-51200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-38600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-29100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-30500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-23700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-18300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-17100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-15000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-19100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-9900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-12300</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,91 +1906,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-51700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-55600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>126600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-55100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-52200</v>
       </c>
       <c r="N23" s="3">
         <v>-52200</v>
       </c>
       <c r="O23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-52700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-40000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-30500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-31700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-24600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-15300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E26" s="3">
         <v>2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-51700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-55600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>126600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-55100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-52200</v>
       </c>
       <c r="N26" s="3">
         <v>-52200</v>
       </c>
       <c r="O26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-52700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-40000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-30500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-31700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-24600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-18600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-15300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E27" s="3">
         <v>2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-51700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-55600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>126600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-55100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-52200</v>
       </c>
       <c r="N27" s="3">
         <v>-52200</v>
       </c>
       <c r="O27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-52700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-40000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-30500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-31700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-24600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-18600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-15300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,32 +2422,35 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-900</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-700</v>
       </c>
       <c r="G29" s="3">
         <v>-700</v>
       </c>
       <c r="H29" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-800</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2405,8 +2466,8 @@
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-500</v>
       </c>
       <c r="N32" s="3">
         <v>-500</v>
       </c>
       <c r="O32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-800</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-52400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-46100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-44600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-55600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>126600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-55100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-52200</v>
       </c>
       <c r="N33" s="3">
         <v>-52200</v>
       </c>
       <c r="O33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-52700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-40000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-30500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-31700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-24600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-18600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-17400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-15300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-52400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-46100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-44600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-55600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>126600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-55100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-52200</v>
       </c>
       <c r="N35" s="3">
         <v>-52200</v>
       </c>
       <c r="O35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-52700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-40000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-30500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-31700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-24600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-18600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-17400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-15300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,77 +3181,78 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E41" s="3">
         <v>131500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>195600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>154300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>184200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>172300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>454600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>329200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>516500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>125700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>85000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>92500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>160900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>89600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>87000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>69200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>61000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>65500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>41900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>48900</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,77 +3265,80 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>486900</v>
+      </c>
+      <c r="E42" s="3">
         <v>498500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>473800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>558500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>574100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>636600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>414000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>406100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>261300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>193900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>252000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>363300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>376700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>411100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>387600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>263400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>294500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>341700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>375600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>224900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>266800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>219200</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3261,38 +3351,41 @@
       <c r="AC42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E43" s="3">
         <v>7800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,8 +3401,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,77 +3523,80 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E45" s="3">
         <v>10100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1900</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3510,77 +3609,80 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>613100</v>
+      </c>
+      <c r="E46" s="3">
         <v>648000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>686000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>726400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>775000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>827000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>890900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>749700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>788000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>329300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>374700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>421500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>470000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>510100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>556200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>357400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>385500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>414600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>442100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>293200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>312600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>270000</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,77 +3781,80 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E48" s="3">
         <v>50600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>52100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>53300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>54800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>55300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>56100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>57900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>61600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>57900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>59400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>60800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>62300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>62600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>61100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>52400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3200</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,77 +4125,80 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E52" s="3">
         <v>10200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>7400</v>
       </c>
       <c r="I52" s="3">
         <v>7400</v>
       </c>
       <c r="J52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>4100</v>
       </c>
       <c r="N52" s="3">
         <v>4100</v>
       </c>
       <c r="O52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P52" s="3">
         <v>3700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1600</v>
       </c>
       <c r="T52" s="3">
         <v>1600</v>
       </c>
       <c r="U52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V52" s="3">
         <v>1500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1600</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,77 +4297,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>672400</v>
+      </c>
+      <c r="E54" s="3">
         <v>708700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>748300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>787600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>837000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>889700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>954500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>814700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>854200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>397100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>440400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>488300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>531600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>572000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>618900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>421900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>449700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>477300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>496000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>308400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>318700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>274900</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4328,68 +4459,68 @@
         <v>4700</v>
       </c>
       <c r="E57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4402,8 +4533,11 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,77 +4619,80 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E59" s="3">
         <v>127600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>96200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>89600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>156300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>144800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>136100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>134800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>130500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>62500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>69700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>61100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>67700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>61700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>58500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>66600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>54600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>47800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>40700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>36800</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4568,77 +4705,80 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E60" s="3">
         <v>132300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>93800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>160900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>149400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>142900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>139600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>132800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>74400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>65900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>71800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>62000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>58700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>67100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>55800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>47900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>41000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>36900</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,77 +4877,80 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>354400</v>
+      </c>
+      <c r="E62" s="3">
         <v>380200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>466000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>479400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>423000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>451700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>544000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>374400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>385500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>138200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>148500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>152600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>150300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>150800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>155400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>165200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>172400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>164400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>174000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>147300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>150300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>159800</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,77 +5221,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>509800</v>
+      </c>
+      <c r="E66" s="3">
         <v>512400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>565300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>573200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>583900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>601200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>686900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>513900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>518300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>212600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>212500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>220700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>221400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>216700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>227200</v>
       </c>
       <c r="R66" s="3">
         <v>227200</v>
       </c>
       <c r="S66" s="3">
+        <v>227200</v>
+      </c>
+      <c r="T66" s="3">
         <v>231100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>231500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>229900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>195200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>191300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>196700</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5406,17 +5574,17 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>210500</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>210200</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>147600</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,77 +5683,80 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-668600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-624200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-625500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-579700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-527300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-481100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-491000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-446400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-390800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-517400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-462200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-410000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-357900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-305200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-259800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-219800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-189300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-157600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-133000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-114400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-97100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-81700</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,77 +6027,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E76" s="3">
         <v>196300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>183000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>214400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>253100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>288500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>267500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>335900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>184500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>227800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>267500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>310200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>355300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>391700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>194700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>218600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>245700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>266200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-97400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-82800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-69400</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-52400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-46100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-44600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-55600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>126600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-55100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-52200</v>
       </c>
       <c r="N81" s="3">
         <v>-52200</v>
       </c>
       <c r="O81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-52700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-40000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-30500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-31700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-24600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-18600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-17400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-15300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6221,19 +6420,19 @@
         <v>1500</v>
       </c>
       <c r="E83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F83" s="3">
         <v>1400</v>
       </c>
       <c r="G83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1600</v>
       </c>
       <c r="J83" s="3">
         <v>1600</v>
@@ -6245,7 +6444,7 @@
         <v>1600</v>
       </c>
       <c r="M83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N83" s="3">
         <v>1500</v>
@@ -6257,19 +6456,19 @@
         <v>1500</v>
       </c>
       <c r="Q83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="R83" s="3">
         <v>1400</v>
       </c>
       <c r="S83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T83" s="3">
         <v>1300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>800</v>
-      </c>
-      <c r="U83" s="3">
-        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
@@ -6278,25 +6477,28 @@
         <v>300</v>
       </c>
       <c r="X83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>500</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>200</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
       </c>
       <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB83" s="3">
         <v>300</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-43000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-48500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-48900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-49100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-57400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>135100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-49300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>445100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-44500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-52700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-47700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-40800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-45900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-32300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-28800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-28900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-18100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-23600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-17700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-22400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>167500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>184500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-700</v>
       </c>
       <c r="I91" s="3">
         <v>-700</v>
       </c>
       <c r="J91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-500</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>88700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>18400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>60500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-225800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-146800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>56600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>109600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>33000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-124900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>30100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>45900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>26400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-151300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>42500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-46900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-219600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-179500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-500</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>228500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>170300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>62300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>70100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
+      <c r="AB100" s="3">
+        <v>0</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-63900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>41200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-29900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-282400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>125500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-187400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>390800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-35000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-68400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>71300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>17800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>23500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-7000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>17900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-9400</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
